--- a/HW_2/sudoku_problem.xlsx
+++ b/HW_2/sudoku_problem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="217" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="1">
   <si>
     <t>_</t>
   </si>
@@ -32,6 +32,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,9 +92,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -117,70 +122,275 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
